--- a/data_year/zb/建筑业/建设工程监理营业收入/营业收入.xlsx
+++ b/data_year/zb/建筑业/建设工程监理营业收入/营业收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,885 +523,665 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4907</v>
+      </c>
       <c r="C2" t="n">
-        <v>58228.37</v>
+        <v>85528</v>
       </c>
       <c r="D2" t="n">
-        <v>12601.38</v>
+        <v>9139</v>
       </c>
       <c r="E2" t="n">
-        <v>52684.86</v>
+        <v>567335</v>
       </c>
       <c r="F2" t="n">
-        <v>109755.98</v>
+        <v>1763828</v>
       </c>
       <c r="G2" t="n">
-        <v>156151.82</v>
+        <v>525752</v>
       </c>
       <c r="H2" t="n">
-        <v>2796703.847244</v>
+        <v>11961387</v>
       </c>
       <c r="I2" t="n">
-        <v>1792560.297244</v>
+        <v>4752079</v>
       </c>
       <c r="J2" t="n">
-        <v>2673.47</v>
+        <v>100485</v>
       </c>
       <c r="K2" t="n">
-        <v>141171.29</v>
+        <v>244770</v>
       </c>
       <c r="L2" t="n">
-        <v>20847.19</v>
+        <v>27834</v>
       </c>
       <c r="M2" t="n">
-        <v>342843.63</v>
+        <v>2738802</v>
       </c>
       <c r="N2" t="n">
-        <v>14372.96</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>107257</v>
+      </c>
+      <c r="O2" t="n">
+        <v>577473</v>
+      </c>
       <c r="P2" t="n">
-        <v>4441.05</v>
+        <v>8176</v>
       </c>
       <c r="Q2" t="n">
-        <v>21017.54</v>
+        <v>68559</v>
       </c>
       <c r="R2" t="n">
-        <v>67354.00999999999</v>
+        <v>379463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20019.04</v>
+      </c>
       <c r="C3" t="n">
-        <v>64707.29</v>
+        <v>103563.3</v>
       </c>
       <c r="D3" t="n">
-        <v>13480.65</v>
+        <v>7741.22</v>
       </c>
       <c r="E3" t="n">
-        <v>62665.98</v>
+        <v>710330.33</v>
       </c>
       <c r="F3" t="n">
-        <v>364851.61</v>
+        <v>2009484.43</v>
       </c>
       <c r="G3" t="n">
-        <v>180166.8</v>
+        <v>583132.48</v>
       </c>
       <c r="H3" t="n">
-        <v>3765438.55</v>
+        <v>14925360.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2214146.48</v>
+        <v>5975768.32</v>
       </c>
       <c r="J3" t="n">
-        <v>3613.46</v>
+        <v>154335.74</v>
       </c>
       <c r="K3" t="n">
-        <v>211115.01</v>
+        <v>571048.74</v>
       </c>
       <c r="L3" t="n">
-        <v>24186.02</v>
+        <v>27767.95</v>
       </c>
       <c r="M3" t="n">
-        <v>459886.79</v>
+        <v>3118157.38</v>
       </c>
       <c r="N3" t="n">
-        <v>21899.34</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>170954.03</v>
+      </c>
+      <c r="O3" t="n">
+        <v>949447.47</v>
+      </c>
       <c r="P3" t="n">
-        <v>4135.32</v>
+        <v>15099.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>34198.95</v>
+        <v>106865.67</v>
       </c>
       <c r="R3" t="n">
-        <v>106384.85</v>
+        <v>401644.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>273.3</v>
+      </c>
       <c r="C4" t="n">
-        <v>56411.33</v>
+        <v>31035.38</v>
       </c>
       <c r="D4" t="n">
-        <v>12646.88</v>
+        <v>381617.12</v>
       </c>
       <c r="E4" t="n">
-        <v>81140.8</v>
+        <v>221749.16</v>
       </c>
       <c r="F4" t="n">
-        <v>516314.22</v>
+        <v>701525.65</v>
       </c>
       <c r="G4" t="n">
-        <v>213029.83</v>
+        <v>186797.82</v>
       </c>
       <c r="H4" t="n">
-        <v>5267286.88</v>
+        <v>17173111.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2934301.56</v>
+        <v>478653.94</v>
       </c>
       <c r="J4" t="n">
-        <v>4284.66</v>
+        <v>1165184.59</v>
       </c>
       <c r="K4" t="n">
-        <v>709663.12</v>
+        <v>3586209.06</v>
       </c>
       <c r="L4" t="n">
-        <v>29479.42</v>
+        <v>17210.6</v>
       </c>
       <c r="M4" t="n">
-        <v>521534.59</v>
+        <v>8555.84</v>
       </c>
       <c r="N4" t="n">
-        <v>27980.84</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>2221345.31</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7178019.22</v>
+      </c>
       <c r="P4" t="n">
-        <v>5525.28</v>
+        <v>149977.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>34931.59</v>
+        <v>724239.03</v>
       </c>
       <c r="R4" t="n">
-        <v>120042.76</v>
+        <v>120717.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>45</v>
-      </c>
-      <c r="C5" t="n">
-        <v>54380</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16185</v>
-      </c>
-      <c r="E5" t="n">
-        <v>419236</v>
-      </c>
-      <c r="F5" t="n">
-        <v>701387</v>
-      </c>
-      <c r="G5" t="n">
-        <v>262407</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>6574397</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3459553</v>
-      </c>
-      <c r="J5" t="n">
-        <v>48473</v>
-      </c>
-      <c r="K5" t="n">
-        <v>347690</v>
-      </c>
-      <c r="L5" t="n">
-        <v>36035</v>
-      </c>
-      <c r="M5" t="n">
-        <v>785918</v>
-      </c>
-      <c r="N5" t="n">
-        <v>47868</v>
-      </c>
-      <c r="O5" t="n">
-        <v>147635</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5513</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>67446</v>
-      </c>
-      <c r="R5" t="n">
-        <v>174625</v>
-      </c>
+        <v>20460377.73</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4088.81</v>
+        <v>16256.33</v>
       </c>
       <c r="C6" t="n">
-        <v>61917.77</v>
+        <v>154974.48</v>
       </c>
       <c r="D6" t="n">
-        <v>8705.549999999999</v>
+        <v>8224.98</v>
       </c>
       <c r="E6" t="n">
-        <v>525201.98</v>
+        <v>379094.81</v>
       </c>
       <c r="F6" t="n">
-        <v>994671.83</v>
+        <v>3260664.91</v>
       </c>
       <c r="G6" t="n">
-        <v>307588.95</v>
+        <v>1166078.73</v>
       </c>
       <c r="H6" t="n">
-        <v>8545491.689999999</v>
+        <v>22210825.52</v>
       </c>
       <c r="I6" t="n">
-        <v>3814007.69</v>
+        <v>9120581.5</v>
       </c>
       <c r="J6" t="n">
-        <v>75432.67</v>
+        <v>73579.88</v>
       </c>
       <c r="K6" t="n">
-        <v>358627.47</v>
+        <v>971368.04</v>
       </c>
       <c r="L6" t="n">
-        <v>29177.04</v>
+        <v>45520.05</v>
       </c>
       <c r="M6" t="n">
-        <v>1580873.58</v>
+        <v>4317665.32</v>
       </c>
       <c r="N6" t="n">
-        <v>76089.16</v>
+        <v>216232.25</v>
       </c>
       <c r="O6" t="n">
-        <v>392000.28</v>
+        <v>1797495.85</v>
       </c>
       <c r="P6" t="n">
-        <v>10836.14</v>
+        <v>23035.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>52698.59</v>
+        <v>220620.88</v>
       </c>
       <c r="R6" t="n">
-        <v>253574.18</v>
+        <v>439431.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4907</v>
+        <v>2821.55</v>
       </c>
       <c r="C7" t="n">
-        <v>85528</v>
+        <v>148676.07</v>
       </c>
       <c r="D7" t="n">
-        <v>9139</v>
+        <v>15393.94</v>
       </c>
       <c r="E7" t="n">
-        <v>567335</v>
+        <v>517653.21</v>
       </c>
       <c r="F7" t="n">
-        <v>1763828</v>
+        <v>2919299.94</v>
       </c>
       <c r="G7" t="n">
-        <v>525752</v>
+        <v>1358826.85</v>
       </c>
       <c r="H7" t="n">
-        <v>11961387</v>
+        <v>24749423.74</v>
       </c>
       <c r="I7" t="n">
-        <v>4752079</v>
+        <v>10332973.46</v>
       </c>
       <c r="J7" t="n">
-        <v>100485</v>
+        <v>85415.96000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>244770</v>
+        <v>1459497.09</v>
       </c>
       <c r="L7" t="n">
-        <v>27834</v>
+        <v>36349.54</v>
       </c>
       <c r="M7" t="n">
-        <v>2738802</v>
+        <v>4673231.04</v>
       </c>
       <c r="N7" t="n">
-        <v>107257</v>
+        <v>215732.63</v>
       </c>
       <c r="O7" t="n">
-        <v>577473</v>
+        <v>1860127.1</v>
       </c>
       <c r="P7" t="n">
-        <v>8176</v>
+        <v>27740.21</v>
       </c>
       <c r="Q7" t="n">
-        <v>68559</v>
+        <v>170780.94</v>
       </c>
       <c r="R7" t="n">
-        <v>379463</v>
+        <v>924904.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20019.04</v>
+        <v>1290.68</v>
       </c>
       <c r="C8" t="n">
-        <v>103563.3</v>
+        <v>113113.7</v>
       </c>
       <c r="D8" t="n">
-        <v>7741.22</v>
+        <v>15362.66</v>
       </c>
       <c r="E8" t="n">
-        <v>710330.33</v>
+        <v>329455.22</v>
       </c>
       <c r="F8" t="n">
-        <v>2009484.43</v>
+        <v>1873494.12</v>
       </c>
       <c r="G8" t="n">
-        <v>583132.48</v>
+        <v>2056845.62</v>
       </c>
       <c r="H8" t="n">
-        <v>14925360.04</v>
+        <v>26955884.15</v>
       </c>
       <c r="I8" t="n">
-        <v>5975768.32</v>
+        <v>11428489.9</v>
       </c>
       <c r="J8" t="n">
-        <v>154335.74</v>
+        <v>103477.4</v>
       </c>
       <c r="K8" t="n">
-        <v>571048.74</v>
+        <v>2320330.92</v>
       </c>
       <c r="L8" t="n">
-        <v>27767.95</v>
+        <v>34746.76</v>
       </c>
       <c r="M8" t="n">
-        <v>3118157.38</v>
+        <v>4747907.26</v>
       </c>
       <c r="N8" t="n">
-        <v>170954.03</v>
+        <v>161597.43</v>
       </c>
       <c r="O8" t="n">
-        <v>949447.47</v>
+        <v>2363440.19</v>
       </c>
       <c r="P8" t="n">
-        <v>15099.93</v>
+        <v>31355.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>106865.67</v>
+        <v>261956.2</v>
       </c>
       <c r="R8" t="n">
-        <v>401644.01</v>
+        <v>1113020.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>273.3</v>
+        <v>713.1</v>
       </c>
       <c r="C9" t="n">
-        <v>31035.38</v>
+        <v>181660.47</v>
       </c>
       <c r="D9" t="n">
-        <v>381617.12</v>
+        <v>13093.29</v>
       </c>
       <c r="E9" t="n">
-        <v>221749.16</v>
+        <v>404786.13</v>
       </c>
       <c r="F9" t="n">
-        <v>701525.65</v>
+        <v>1810962.57</v>
       </c>
       <c r="G9" t="n">
-        <v>186797.82</v>
+        <v>2461499.12</v>
       </c>
       <c r="H9" t="n">
-        <v>17173111.05</v>
+        <v>32817217.77</v>
       </c>
       <c r="I9" t="n">
-        <v>478653.94</v>
+        <v>14293452.52</v>
       </c>
       <c r="J9" t="n">
-        <v>1165184.59</v>
+        <v>52833.52</v>
       </c>
       <c r="K9" t="n">
-        <v>3586209.06</v>
+        <v>3062075.71</v>
       </c>
       <c r="L9" t="n">
-        <v>17210.6</v>
+        <v>31217.35</v>
       </c>
       <c r="M9" t="n">
-        <v>8555.84</v>
+        <v>5896423.03</v>
       </c>
       <c r="N9" t="n">
-        <v>2221345.31</v>
+        <v>163950.07</v>
       </c>
       <c r="O9" t="n">
-        <v>7178019.22</v>
+        <v>2876697.11</v>
       </c>
       <c r="P9" t="n">
-        <v>149977.56</v>
+        <v>35228.94</v>
       </c>
       <c r="Q9" t="n">
-        <v>724239.03</v>
+        <v>368783.91</v>
       </c>
       <c r="R9" t="n">
-        <v>120717.47</v>
+        <v>1163840.93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4031.87</v>
+      </c>
+      <c r="C10" t="n">
+        <v>161373.16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13241.44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>673307.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3899942.27</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3577552.96</v>
+      </c>
       <c r="H10" t="n">
-        <v>20460377.73</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+        <v>43144242.42</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18651257.72</v>
+      </c>
+      <c r="J10" t="n">
+        <v>355.52</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4223485.13</v>
+      </c>
+      <c r="L10" t="n">
+        <v>27926.9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6292248.71</v>
+      </c>
+      <c r="N10" t="n">
+        <v>261393.22</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3819385.86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>31569.62</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>346933.34</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1160237</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16256.33</v>
+        <v>2315.683</v>
       </c>
       <c r="C11" t="n">
-        <v>154974.48</v>
+        <v>410325.466</v>
       </c>
       <c r="D11" t="n">
-        <v>8224.98</v>
+        <v>45590.796</v>
       </c>
       <c r="E11" t="n">
-        <v>379094.81</v>
+        <v>910783.529</v>
       </c>
       <c r="F11" t="n">
-        <v>3260664.91</v>
+        <v>5046318.531</v>
       </c>
       <c r="G11" t="n">
-        <v>1166078.73</v>
+        <v>4794800.762</v>
       </c>
       <c r="H11" t="n">
-        <v>22210825.52</v>
+        <v>59944750.695</v>
       </c>
       <c r="I11" t="n">
-        <v>9120581.5</v>
+        <v>27207287.477</v>
       </c>
       <c r="J11" t="n">
-        <v>73579.88</v>
+        <v>128583.466</v>
       </c>
       <c r="K11" t="n">
-        <v>971368.04</v>
+        <v>4881557.677</v>
       </c>
       <c r="L11" t="n">
-        <v>45520.05</v>
+        <v>29392.851</v>
       </c>
       <c r="M11" t="n">
-        <v>4317665.32</v>
+        <v>9450920.744999999</v>
       </c>
       <c r="N11" t="n">
-        <v>216232.25</v>
+        <v>348647.649</v>
       </c>
       <c r="O11" t="n">
-        <v>1797495.85</v>
+        <v>4674138.293</v>
       </c>
       <c r="P11" t="n">
-        <v>23035.92</v>
+        <v>34506.147</v>
       </c>
       <c r="Q11" t="n">
-        <v>220620.88</v>
+        <v>574701.023</v>
       </c>
       <c r="R11" t="n">
-        <v>439431.59</v>
+        <v>1404880.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2821.55</v>
+        <v>206.249</v>
       </c>
       <c r="C12" t="n">
-        <v>148676.07</v>
+        <v>293022.789</v>
       </c>
       <c r="D12" t="n">
-        <v>15393.94</v>
+        <v>64445.573</v>
       </c>
       <c r="E12" t="n">
-        <v>517653.21</v>
+        <v>1036510.793</v>
       </c>
       <c r="F12" t="n">
-        <v>2919299.94</v>
+        <v>6064412.828</v>
       </c>
       <c r="G12" t="n">
-        <v>1358826.85</v>
+        <v>6516150.289</v>
       </c>
       <c r="H12" t="n">
-        <v>24749423.74</v>
+        <v>71781591.92</v>
       </c>
       <c r="I12" t="n">
-        <v>10332973.46</v>
+        <v>29288432.96</v>
       </c>
       <c r="J12" t="n">
-        <v>85415.96000000001</v>
+        <v>2119876.206</v>
       </c>
       <c r="K12" t="n">
-        <v>1459497.09</v>
+        <v>6261709.184</v>
       </c>
       <c r="L12" t="n">
-        <v>36349.54</v>
+        <v>29780.653</v>
       </c>
       <c r="M12" t="n">
-        <v>4673231.04</v>
+        <v>12056268.732</v>
       </c>
       <c r="N12" t="n">
-        <v>215732.63</v>
+        <v>312475.017</v>
       </c>
       <c r="O12" t="n">
-        <v>1860127.1</v>
+        <v>5629276.62</v>
       </c>
       <c r="P12" t="n">
-        <v>27740.21</v>
+        <v>37940.985</v>
       </c>
       <c r="Q12" t="n">
-        <v>170780.94</v>
+        <v>531096.7610000001</v>
       </c>
       <c r="R12" t="n">
-        <v>924904.21</v>
+        <v>1539986.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1290.68</v>
+        <v>147.151</v>
       </c>
       <c r="C13" t="n">
-        <v>113113.7</v>
+        <v>461643.779</v>
       </c>
       <c r="D13" t="n">
-        <v>15362.66</v>
+        <v>57341.851</v>
       </c>
       <c r="E13" t="n">
-        <v>329455.22</v>
+        <v>1758429.253</v>
       </c>
       <c r="F13" t="n">
-        <v>1873494.12</v>
+        <v>6706621.519</v>
       </c>
       <c r="G13" t="n">
-        <v>2056845.62</v>
+        <v>10501996.276</v>
       </c>
       <c r="H13" t="n">
-        <v>26955884.15</v>
+        <v>94728298.40899999</v>
       </c>
       <c r="I13" t="n">
-        <v>11428489.9</v>
+        <v>41752316.681</v>
       </c>
       <c r="J13" t="n">
-        <v>103477.4</v>
+        <v>3000896.925</v>
       </c>
       <c r="K13" t="n">
-        <v>2320330.92</v>
+        <v>6932380.769</v>
       </c>
       <c r="L13" t="n">
-        <v>34746.76</v>
+        <v>41135.26</v>
       </c>
       <c r="M13" t="n">
-        <v>4747907.26</v>
+        <v>12804633.639</v>
       </c>
       <c r="N13" t="n">
-        <v>161597.43</v>
+        <v>436797.055</v>
       </c>
       <c r="O13" t="n">
-        <v>2363440.19</v>
+        <v>7725683.091</v>
       </c>
       <c r="P13" t="n">
-        <v>31355.64</v>
+        <v>44412.636</v>
       </c>
       <c r="Q13" t="n">
-        <v>261956.2</v>
+        <v>1174284.071</v>
       </c>
       <c r="R13" t="n">
-        <v>1113020.46</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>713.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>181660.47</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13093.29</v>
-      </c>
-      <c r="E14" t="n">
-        <v>404786.13</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1810962.57</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2461499.12</v>
-      </c>
-      <c r="H14" t="n">
-        <v>32817217.77</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14293452.52</v>
-      </c>
-      <c r="J14" t="n">
-        <v>52833.52</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3062075.71</v>
-      </c>
-      <c r="L14" t="n">
-        <v>31217.35</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5896423.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>163950.07</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2876697.11</v>
-      </c>
-      <c r="P14" t="n">
-        <v>35228.94</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>368783.91</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1163840.93</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4031.87</v>
-      </c>
-      <c r="C15" t="n">
-        <v>161373.16</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13241.44</v>
-      </c>
-      <c r="E15" t="n">
-        <v>673307.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3899942.27</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3577552.96</v>
-      </c>
-      <c r="H15" t="n">
-        <v>43144242.42</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18651257.72</v>
-      </c>
-      <c r="J15" t="n">
-        <v>355.52</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4223485.13</v>
-      </c>
-      <c r="L15" t="n">
-        <v>27926.9</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6292248.71</v>
-      </c>
-      <c r="N15" t="n">
-        <v>261393.22</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3819385.86</v>
-      </c>
-      <c r="P15" t="n">
-        <v>31569.62</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>346933.34</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1160237</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2315.683</v>
-      </c>
-      <c r="C16" t="n">
-        <v>410325.466</v>
-      </c>
-      <c r="D16" t="n">
-        <v>45590.796</v>
-      </c>
-      <c r="E16" t="n">
-        <v>910783.529</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5046318.531</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4794800.762</v>
-      </c>
-      <c r="H16" t="n">
-        <v>59944750.695</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27207287.477</v>
-      </c>
-      <c r="J16" t="n">
-        <v>128583.466</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4881557.677</v>
-      </c>
-      <c r="L16" t="n">
-        <v>29392.851</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9450920.744999999</v>
-      </c>
-      <c r="N16" t="n">
-        <v>348647.649</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4674138.293</v>
-      </c>
-      <c r="P16" t="n">
-        <v>34506.147</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>574701.023</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1404880.6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>206.249</v>
-      </c>
-      <c r="C17" t="n">
-        <v>293022.789</v>
-      </c>
-      <c r="D17" t="n">
-        <v>64445.573</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1036510.793</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6064412.828</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6516150.289</v>
-      </c>
-      <c r="H17" t="n">
-        <v>71781591.92</v>
-      </c>
-      <c r="I17" t="n">
-        <v>29288432.96</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2119876.206</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6261709.184</v>
-      </c>
-      <c r="L17" t="n">
-        <v>29780.653</v>
-      </c>
-      <c r="M17" t="n">
-        <v>12056268.732</v>
-      </c>
-      <c r="N17" t="n">
-        <v>312475.017</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5629276.62</v>
-      </c>
-      <c r="P17" t="n">
-        <v>37940.985</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>531096.7610000001</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1539986.28</v>
+        <v>1329578.453</v>
       </c>
     </row>
   </sheetData>
